--- a/EdgeQA/InputSheet/UI_Codeless_Tests.xlsx
+++ b/EdgeQA/InputSheet/UI_Codeless_Tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreya\AI Project Workspace\Edge-Flow-QA\EdgeQA\InputSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreya\AI Project Workspace\Edge-Flow-QA\EdgeQA\inputSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70788949-9C02-4EE6-A258-23E7FEC00A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC325F6-190F-4EAB-A480-7E426054A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>TC_UI_001</t>
+  </si>
+  <si>
+    <t>Create user</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TC_UI_002</t>
+  </si>
+  <si>
+    <t>Example domain flow</t>
+  </si>
+  <si>
+    <t>TC_UI_003</t>
+  </si>
+  <si>
+    <t>Navigation To Google and Searching</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FlowName</t>
+  </si>
+  <si>
     <t>Step</t>
   </si>
   <si>
@@ -41,6 +77,9 @@
     <t>Expected</t>
   </si>
   <si>
+    <t>LOGIN_FLOW</t>
+  </si>
+  <si>
     <t>open_url</t>
   </si>
   <si>
@@ -50,112 +89,73 @@
     <t>fill_text</t>
   </si>
   <si>
+    <t>#username</t>
+  </si>
+  <si>
+    <t>{{username}}</t>
+  </si>
+  <si>
+    <t>#password</t>
+  </si>
+  <si>
+    <t>{{password}}</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>#loginBtn</t>
+  </si>
+  <si>
+    <t>LOGOUT_FLOW</t>
+  </si>
+  <si>
+    <t>#profile</t>
+  </si>
+  <si>
+    <t>#logout</t>
+  </si>
+  <si>
+    <t>OPEN_EXAMPLE_FLOW</t>
+  </si>
+  <si>
+    <t>https://example.com</t>
+  </si>
+  <si>
+    <t>CALL_FLOW</t>
+  </si>
+  <si>
+    <t>DashboardPage.addUser</t>
+  </si>
+  <si>
+    <t>DashboardPage.name</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>DashboardPage.save</t>
+  </si>
+  <si>
+    <t>assert_text</t>
+  </si>
+  <si>
+    <t>ExamplePage.title</t>
+  </si>
+  <si>
+    <t>Example Domain</t>
+  </si>
+  <si>
     <t>#APjFqb</t>
   </si>
   <si>
     <t>Xceedane pune</t>
   </si>
   <si>
-    <t>click</t>
-  </si>
-  <si>
     <t>div[class='lJ9FBc'] input[name='btnK']</t>
   </si>
   <si>
     <t>#_L1WHadKuHKjd1e8P8piRmAE_44</t>
-  </si>
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>TC_UI_001</t>
-  </si>
-  <si>
-    <t>Create user</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>TC_UI_002</t>
-  </si>
-  <si>
-    <t>Example domain flow</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>TC_UI_003</t>
-  </si>
-  <si>
-    <t>Navigation To Google and Searching</t>
-  </si>
-  <si>
-    <t>FlowName</t>
-  </si>
-  <si>
-    <t>LOGIN_FLOW</t>
-  </si>
-  <si>
-    <t>#username</t>
-  </si>
-  <si>
-    <t>{{username}}</t>
-  </si>
-  <si>
-    <t>#password</t>
-  </si>
-  <si>
-    <t>{{password}}</t>
-  </si>
-  <si>
-    <t>#loginBtn</t>
-  </si>
-  <si>
-    <t>LOGOUT_FLOW</t>
-  </si>
-  <si>
-    <t>#profile</t>
-  </si>
-  <si>
-    <t>#logout</t>
-  </si>
-  <si>
-    <t>OPEN_EXAMPLE_FLOW</t>
-  </si>
-  <si>
-    <t>https://example.com</t>
-  </si>
-  <si>
-    <t>CALL_FLOW</t>
-  </si>
-  <si>
-    <t>#addUser</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>#save</t>
-  </si>
-  <si>
-    <t>assert_text</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>Example Domain</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -538,46 +538,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -604,136 +604,136 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -747,27 +747,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -786,10 +789,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,13 +800,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,10 +814,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,10 +825,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -852,19 +855,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,13 +886,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -914,19 +917,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,10 +937,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -947,13 +950,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -962,10 +965,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -975,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>

--- a/EdgeQA/InputSheet/UI_Codeless_Tests.xlsx
+++ b/EdgeQA/InputSheet/UI_Codeless_Tests.xlsx
@@ -5,26 +5,121 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreya\AI Project Workspace\Edge-Flow-QA\EdgeQA\inputSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreya\AI Project Workspace\Edge-Flow-QA\EdgeQA\InputSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC325F6-190F-4EAB-A480-7E426054A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757EC470-8371-44E8-B5C7-D89A493FE11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="FLOWS" sheetId="2" r:id="rId2"/>
-    <sheet name="TC_UI_001" sheetId="3" r:id="rId3"/>
-    <sheet name="TC_UI_002" sheetId="4" r:id="rId4"/>
-    <sheet name="TC_UI_003" sheetId="5" r:id="rId5"/>
+    <sheet name="Sample_Keywods" sheetId="6" r:id="rId2"/>
+    <sheet name="FLOWS" sheetId="2" r:id="rId3"/>
+    <sheet name="TC_UI_001" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>CALL_FLOW</t>
+  </si>
+  <si>
+    <t>OPEN_EXAMPLE_FLOW</t>
+  </si>
+  <si>
+    <t>assert_title</t>
+  </si>
+  <si>
+    <t>Example Domain</t>
+  </si>
+  <si>
+    <t>screenshot_full_page</t>
+  </si>
+  <si>
+    <t>example_full.png</t>
+  </si>
+  <si>
+    <t>screenshot_element</t>
+  </si>
+  <si>
+    <t>ExamplePage.title</t>
+  </si>
+  <si>
+    <t>example_h1.png</t>
+  </si>
+  <si>
+    <t>new_tab</t>
+  </si>
+  <si>
+    <t>https://example.com</t>
+  </si>
+  <si>
+    <t>browser_back</t>
+  </si>
+  <si>
+    <t>browser_refresh</t>
+  </si>
+  <si>
+    <t>switch_window</t>
+  </si>
+  <si>
+    <t>maximize_window</t>
+  </si>
+  <si>
+    <t>switch_to_frame</t>
+  </si>
+  <si>
+    <t>switch_to_main_frame</t>
+  </si>
+  <si>
+    <t>close_tab</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>DashboardPage.addUser</t>
+  </si>
+  <si>
+    <t>fill_text</t>
+  </si>
+  <si>
+    <t>DashboardPage.name</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>DashboardPage.save</t>
+  </si>
+  <si>
+    <t>LOGOUT_FLOW</t>
+  </si>
+  <si>
+    <t>open_url</t>
+  </si>
+  <si>
+    <t>{{base_url}}</t>
+  </si>
   <si>
     <t>TestCaseID</t>
   </si>
@@ -41,121 +136,73 @@
     <t>Create user</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>TC_UI_002</t>
-  </si>
-  <si>
-    <t>Example domain flow</t>
-  </si>
-  <si>
-    <t>TC_UI_003</t>
-  </si>
-  <si>
-    <t>Navigation To Google and Searching</t>
+    <t>FlowName</t>
+  </si>
+  <si>
+    <t>LOGIN_FLOW</t>
+  </si>
+  <si>
+    <t>#username</t>
+  </si>
+  <si>
+    <t>{{username}}</t>
+  </si>
+  <si>
+    <t>#password</t>
+  </si>
+  <si>
+    <t>{{password}}</t>
+  </si>
+  <si>
+    <t>#loginBtn</t>
+  </si>
+  <si>
+    <t>#profile</t>
+  </si>
+  <si>
+    <t>#logout</t>
+  </si>
+  <si>
+    <t>wait_for_visible</t>
+  </si>
+  <si>
+    <t>wait_for_attached</t>
+  </si>
+  <si>
+    <t>wait_for_url</t>
+  </si>
+  <si>
+    <t>wait_for_load_state</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>wait_for_hidden</t>
+  </si>
+  <si>
+    <t>wait_for_detached</t>
+  </si>
+  <si>
+    <t>wait_for_enabled</t>
+  </si>
+  <si>
+    <t>wait_for_disabled</t>
+  </si>
+  <si>
+    <t>BaseUrl.png</t>
+  </si>
+  <si>
+    <t>GooglePage.searchBox</t>
+  </si>
+  <si>
+    <t>Automation testing</t>
+  </si>
+  <si>
+    <t>Searching.png</t>
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>FlowName</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Locator</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>LOGIN_FLOW</t>
-  </si>
-  <si>
-    <t>open_url</t>
-  </si>
-  <si>
-    <t>{{base_url}}</t>
-  </si>
-  <si>
-    <t>fill_text</t>
-  </si>
-  <si>
-    <t>#username</t>
-  </si>
-  <si>
-    <t>{{username}}</t>
-  </si>
-  <si>
-    <t>#password</t>
-  </si>
-  <si>
-    <t>{{password}}</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>#loginBtn</t>
-  </si>
-  <si>
-    <t>LOGOUT_FLOW</t>
-  </si>
-  <si>
-    <t>#profile</t>
-  </si>
-  <si>
-    <t>#logout</t>
-  </si>
-  <si>
-    <t>OPEN_EXAMPLE_FLOW</t>
-  </si>
-  <si>
-    <t>https://example.com</t>
-  </si>
-  <si>
-    <t>CALL_FLOW</t>
-  </si>
-  <si>
-    <t>DashboardPage.addUser</t>
-  </si>
-  <si>
-    <t>DashboardPage.name</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>DashboardPage.save</t>
-  </si>
-  <si>
-    <t>assert_text</t>
-  </si>
-  <si>
-    <t>ExamplePage.title</t>
-  </si>
-  <si>
-    <t>Example Domain</t>
-  </si>
-  <si>
-    <t>#APjFqb</t>
-  </si>
-  <si>
-    <t>Xceedane pune</t>
-  </si>
-  <si>
-    <t>div[class='lJ9FBc'] input[name='btnK']</t>
-  </si>
-  <si>
-    <t>#_L1WHadKuHKjd1e8P8piRmAE_44</t>
   </si>
 </sst>
 </file>
@@ -214,13 +261,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,46 +586,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -586,11 +612,383 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,232 +1002,139 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -837,37 +1142,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,118 +1177,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>